--- a/model_exports/labels/2.0_True_False_0_3.xlsx
+++ b/model_exports/labels/2.0_True_False_0_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C733"/>
+  <dimension ref="A1:C735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,11 +479,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-504042718663036928</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-504366068648148992</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,63 +505,63 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-504850389129129984</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-504998704118394880</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-501732075599593472</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,20 +583,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,46 +622,46 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,33 +687,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-683960479224586240</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,11 +726,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-684033292694327296</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-684082364117585920</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,20 +752,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-684154242035089408</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,24 +856,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,20 +882,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,33 +921,33 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,24 +960,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,63 +986,63 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,20 +1064,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,33 +1090,33 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,20 +1129,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1194,11 +1194,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-960921688975331329</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-961028171192852485</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-961254369663602688</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,20 +1233,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,20 +1272,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1024388985282383872</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,46 +1298,46 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,11 +1363,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1376,20 +1376,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,85 +1402,85 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1054831014869123073</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-1054887299698380800</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-1055927061867585536</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,72 +1506,72 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-1030587514820669441</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-1030625730407874563</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-1031145618503360513</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-1031309689848508416</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,33 +1584,33 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,20 +1636,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,33 +1662,33 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,20 +1701,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-1024774127687749633</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,24 +1727,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -1753,24 +1753,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-976076558824767489</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,33 +1779,33 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,24 +1818,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-924921911510949890</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-924939317381758976</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-979396065278427139</t>
+          <t>t-925210606361300992</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-925257914817892352</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-745031440031694848</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,11 +1922,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-788842589554343938</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,33 +1948,33 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,24 +1987,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-639446444949180417</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2013,33 +2013,33 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,20 +2052,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,24 +2130,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2156,11 +2156,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,46 +2169,46 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,33 +2234,33 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-681802042885697536</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-682128192019234816</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-682147581405859841</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-682223092198936576</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-682287065824931840</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,24 +2299,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-682459381347254272</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-682632199527641089</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,24 +2325,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-682755737790099456</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-682908634020470785</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-682915879026339840</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,24 +2364,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-683017640638582784</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-683036658942513152</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,33 +2390,33 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-683077568287866880</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-879367414802153472</t>
+          <t>t-683235960692314112</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-683258563628777472</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,20 +2429,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-683386799184543745</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-683399457254326272</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-683602691965206528</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,46 +2468,46 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-683628764622905344</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-683644184683753472</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-683649428587155456</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-683773064040050688</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-683968472968228864</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-683979793273065473</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-684007082555748352</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-684323489562558465</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-685408547975331840</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,20 +2585,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,24 +2611,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,20 +2650,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,33 +2676,33 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,24 +2715,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,20 +2741,20 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,20 +2767,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,37 +2806,37 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-949552218650365952</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,20 +2845,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,11 +2871,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-902218968345272321</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,24 +2910,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,11 +2975,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2988,24 +2988,24 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3014,50 +3014,50 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3066,46 +3066,46 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,24 +3118,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-780856348493832192</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,33 +3170,33 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,7 +3209,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,63 +3222,63 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-958376851084337153</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,46 +3287,46 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-652481072199036928</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,46 +3365,46 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-735525963610660865</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-736203598091190272</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-821459572263100416</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-732832771106865153</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-767994872578056192</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,20 +3495,20 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,20 +3534,20 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,37 +3560,37 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -3599,11 +3599,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-972048308909826048</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,37 +3625,37 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -3664,33 +3664,33 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,33 +3703,33 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,33 +3742,33 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,20 +3781,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,20 +3807,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,24 +3833,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,20 +3885,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,33 +3950,33 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-630004911024046080</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-630051857654751232</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,33 +3989,33 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-630833400857919488</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-615316042294890496</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,46 +4028,46 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-913153226706472965</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,76 +4080,76 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-972048308909826048</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4158,20 +4158,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,11 +4184,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,33 +4197,33 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-860196024056414208</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1052977443760427009</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,24 +4275,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-874804635327905792</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-821077876112035840</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,37 +4301,37 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-821090113476325376</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,20 +4340,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,20 +4366,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,37 +4418,37 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-880307230364508160</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-572732322178572288</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-572748274618277888</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,11 +4457,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-572762505111580673</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-573486943880638464</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4483,11 +4483,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-573279947445420034</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,63 +4509,63 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-735633517237919744</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -4574,24 +4574,24 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-686862688752807937</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-763085869045653505</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-763088808799797248</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,46 +4626,46 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-1002347419114311681</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,7 +4678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,33 +4691,33 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1016527492478328832</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,37 +4730,37 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-971386931857772544</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1016293496980955136</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-771587937746071552</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,11 +4821,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,46 +4834,46 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,20 +4886,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,11 +4912,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-796435007673946112</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-796529318373584896</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,24 +4938,24 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-796701113995104256</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-796745584795389952</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4964,20 +4964,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-812266777711431682</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,24 +5016,24 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,24 +5055,24 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -5120,33 +5120,33 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,20 +5185,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,46 +5211,46 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,46 +5263,46 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,24 +5315,24 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-880971995671875586</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -5341,46 +5341,46 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,11 +5393,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
         <v>1</v>
@@ -5406,37 +5406,37 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -5445,33 +5445,33 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-1048603963069779968</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,46 +5484,46 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-517992573227778048</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,37 +5549,37 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -5588,46 +5588,46 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,7 +5640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,7 +5679,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,11 +5692,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -5705,11 +5705,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -5718,11 +5718,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-1001002093895921665</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
         <v>1</v>
@@ -5731,37 +5731,37 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-722253771867181056</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-722818069320470529</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-722837910135832577</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,7 +5770,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-722884869374619648</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,24 +5783,24 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-723517423786299392</t>
         </is>
       </c>
       <c r="B412" t="n">
         <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,11 +5822,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -5835,11 +5835,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,24 +5848,24 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-957342329127473158</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
         <v>1</v>
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,11 +5887,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-788324770765008896</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5900,37 +5900,37 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,20 +5952,20 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-948989121611075584</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,7 +5978,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,11 +5991,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-965524750264135680</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,7 +6017,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-966320851678318593</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,46 +6030,46 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-967380419707535360</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-653928809671081984</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,24 +6121,24 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-846728089912643588</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,7 +6160,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,20 +6173,20 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-629936150220685312</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,11 +6212,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -6225,24 +6225,24 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,24 +6251,24 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-950088164777123841</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-950818741209747456</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-951169520584024064</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,20 +6290,20 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-951600654866317313</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-951687956045156352</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,33 +6329,33 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B454" t="n">
         <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,11 +6368,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,33 +6381,33 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-669507403621277696</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-712917955391172609</t>
+          <t>t-669900887607898113</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,20 +6446,20 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,33 +6472,33 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-917052938425716736</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,7 +6537,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-917054284579078144</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,33 +6550,33 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-917061971631108097</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-917080429227778048</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-917105709682216960</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,33 +6589,33 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,20 +6628,20 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,7 +6654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,20 +6680,20 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,20 +6706,20 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B483" t="n">
         <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,20 +6732,20 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B485" t="n">
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,37 +6758,37 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -6797,50 +6797,50 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,20 +6849,20 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,7 +6875,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,7 +6888,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,24 +6901,24 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,24 +6927,24 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-880072530329038848</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
@@ -6953,11 +6953,11 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
         <v>1</v>
@@ -6966,37 +6966,37 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,46 +7044,46 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-669879511748579329</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-670195512713330689</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,46 +7109,46 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-741709377703411712</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,20 +7187,20 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-890865444307042304</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,20 +7226,20 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-636903909362167808</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-743445326611251200</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,24 +7278,24 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,20 +7304,20 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,24 +7330,24 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-992831860215615489</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -7356,20 +7356,20 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,11 +7382,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
         <v>1</v>
@@ -7395,11 +7395,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>0</v>
@@ -7421,20 +7421,20 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,7 +7460,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,20 +7512,20 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,24 +7538,24 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
         <v>1</v>
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,37 +7590,37 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
         <v>0</v>
@@ -7629,33 +7629,33 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,46 +7668,46 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,20 +7720,20 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,20 +7746,20 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,20 +7772,20 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -7798,24 +7798,24 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-529938272265703424</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,20 +7824,20 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,33 +7889,33 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-1003659615115141120</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,24 +7941,24 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -7967,11 +7967,11 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-495525926722367488</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
         <v>0</v>
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,11 +7993,11 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,11 +8019,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>1</v>
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,37 +8045,37 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -8084,24 +8084,24 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C590" t="n">
         <v>1</v>
@@ -8110,11 +8110,11 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>1</v>
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,50 +8162,50 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-788186519307563010</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,46 +8227,46 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-831833976029454338</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,20 +8279,20 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,20 +8318,20 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,11 +8383,11 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
         <v>0</v>
@@ -8396,33 +8396,33 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-697693466298552321</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-697911341554610176</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,24 +8435,24 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
         <v>0</v>
@@ -8461,11 +8461,11 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -8474,46 +8474,46 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,20 +8604,20 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,20 +8643,20 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,20 +8747,20 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-870517868831449088</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,33 +8773,33 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,33 +8825,33 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,20 +8864,20 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,20 +8890,20 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,11 +8955,11 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,7 +8968,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,40 +9007,40 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-989542585978052610</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,33 +9111,33 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B668" t="n">
         <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-544711019629907968</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-544769671799394304</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,24 +9163,24 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-544813894037147648</t>
         </is>
       </c>
       <c r="B672" t="n">
         <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-545169541052243968</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,11 +9189,11 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
         <v>0</v>
@@ -9202,11 +9202,11 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,11 +9215,11 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-723151439586013184</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,33 +9332,33 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B686" t="n">
         <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,37 +9410,37 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-540776934658277377</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-695999176518184960</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,11 +9475,11 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,46 +9527,46 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-823731915236708352</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B701" t="n">
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-823731915236708352</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,20 +9605,20 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,24 +9657,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-935764445632061440</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,20 +9683,20 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-563225583400648704</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,33 +9748,33 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B718" t="n">
         <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,20 +9813,20 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-765452831297970176</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-819830340390830081</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-610619808913076224</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,7 +9943,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-780951872647475200</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,13 +9956,39 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-732116489394851840</t>
         </is>
       </c>
       <c r="B733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>t-732306842290946048</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>1</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>t-797677972547219456</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1</v>
+      </c>
+      <c r="C735" t="n">
         <v>1</v>
       </c>
     </row>
